--- a/Exercises/Practice1_Workbook and Data Tables/OutputFiles/EstimatedPrize.xlsx
+++ b/Exercises/Practice1_Workbook and Data Tables/OutputFiles/EstimatedPrize.xlsx
@@ -533,7 +533,7 @@
         <x:v>1.3</x:v>
       </x:c>
       <x:c r="G2" s="0">
-        <x:v>0</x:v>
+        <x:v>1017</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -556,7 +556,7 @@
         <x:v>1.3</x:v>
       </x:c>
       <x:c r="G3" s="0">
-        <x:v>0</x:v>
+        <x:v>1174</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -579,7 +579,7 @@
         <x:v>1.3</x:v>
       </x:c>
       <x:c r="G4" s="0">
-        <x:v>0</x:v>
+        <x:v>997</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -602,7 +602,7 @@
         <x:v>1.6</x:v>
       </x:c>
       <x:c r="G5" s="0">
-        <x:v>0</x:v>
+        <x:v>1474</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
@@ -625,7 +625,7 @@
         <x:v>1.6</x:v>
       </x:c>
       <x:c r="G6" s="0">
-        <x:v>0</x:v>
+        <x:v>981</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -648,7 +648,7 @@
         <x:v>1.6</x:v>
       </x:c>
       <x:c r="G7" s="0">
-        <x:v>0</x:v>
+        <x:v>1517</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -671,7 +671,7 @@
         <x:v>2.2</x:v>
       </x:c>
       <x:c r="G8" s="0">
-        <x:v>0</x:v>
+        <x:v>1569</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
@@ -694,7 +694,7 @@
         <x:v>2.2</x:v>
       </x:c>
       <x:c r="G9" s="0">
-        <x:v>0</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
@@ -717,7 +717,7 @@
         <x:v>2.2</x:v>
       </x:c>
       <x:c r="G10" s="0">
-        <x:v>0</x:v>
+        <x:v>1162</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
@@ -740,7 +740,7 @@
         <x:v>2.2</x:v>
       </x:c>
       <x:c r="G11" s="0">
-        <x:v>0</x:v>
+        <x:v>713</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
@@ -763,7 +763,7 @@
         <x:v>2.2</x:v>
       </x:c>
       <x:c r="G12" s="0">
-        <x:v>0</x:v>
+        <x:v>411</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
@@ -786,7 +786,7 @@
         <x:v>2.2</x:v>
       </x:c>
       <x:c r="G13" s="0">
-        <x:v>0</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
@@ -809,7 +809,7 @@
         <x:v>2.7</x:v>
       </x:c>
       <x:c r="G14" s="0">
-        <x:v>0</x:v>
+        <x:v>1750</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
@@ -832,7 +832,7 @@
         <x:v>2.7</x:v>
       </x:c>
       <x:c r="G15" s="0">
-        <x:v>0</x:v>
+        <x:v>664</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
@@ -855,7 +855,7 @@
         <x:v>2.7</x:v>
       </x:c>
       <x:c r="G16" s="0">
-        <x:v>0</x:v>
+        <x:v>1455</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
@@ -878,7 +878,7 @@
         <x:v>3.3</x:v>
       </x:c>
       <x:c r="G17" s="0">
-        <x:v>0</x:v>
+        <x:v>1891</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
@@ -901,7 +901,7 @@
         <x:v>3.3</x:v>
       </x:c>
       <x:c r="G18" s="0">
-        <x:v>0</x:v>
+        <x:v>2581</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
@@ -924,7 +924,7 @@
         <x:v>3.3</x:v>
       </x:c>
       <x:c r="G19" s="0">
-        <x:v>0</x:v>
+        <x:v>2864</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
@@ -947,7 +947,7 @@
         <x:v>3.8</x:v>
       </x:c>
       <x:c r="G20" s="0">
-        <x:v>0</x:v>
+        <x:v>1056</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
@@ -970,7 +970,7 @@
         <x:v>3.8</x:v>
       </x:c>
       <x:c r="G21" s="0">
-        <x:v>0</x:v>
+        <x:v>1729</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
@@ -993,7 +993,7 @@
         <x:v>3.8</x:v>
       </x:c>
       <x:c r="G22" s="0">
-        <x:v>0</x:v>
+        <x:v>1060</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
@@ -1016,7 +1016,7 @@
         <x:v>4.4</x:v>
       </x:c>
       <x:c r="G23" s="0">
-        <x:v>0</x:v>
+        <x:v>2006</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
@@ -1039,7 +1039,7 @@
         <x:v>4.4</x:v>
       </x:c>
       <x:c r="G24" s="0">
-        <x:v>0</x:v>
+        <x:v>3511</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
@@ -1062,7 +1062,7 @@
         <x:v>4.4</x:v>
       </x:c>
       <x:c r="G25" s="0">
-        <x:v>0</x:v>
+        <x:v>634</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
@@ -1085,7 +1085,7 @@
         <x:v>4.9</x:v>
       </x:c>
       <x:c r="G26" s="0">
-        <x:v>0</x:v>
+        <x:v>2724</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
@@ -1108,7 +1108,7 @@
         <x:v>4.9</x:v>
       </x:c>
       <x:c r="G27" s="0">
-        <x:v>0</x:v>
+        <x:v>1592</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
@@ -1131,7 +1131,7 @@
         <x:v>4.9</x:v>
       </x:c>
       <x:c r="G28" s="0">
-        <x:v>0</x:v>
+        <x:v>4292</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
@@ -1154,7 +1154,7 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="G29" s="0">
-        <x:v>0</x:v>
+        <x:v>4890</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
@@ -1177,7 +1177,7 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="G30" s="0">
-        <x:v>0</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
@@ -1200,7 +1200,7 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="G31" s="0">
-        <x:v>0</x:v>
+        <x:v>3778</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
@@ -1223,7 +1223,7 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="G32" s="0">
-        <x:v>0</x:v>
+        <x:v>5478</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
@@ -1246,7 +1246,7 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="G33" s="0">
-        <x:v>0</x:v>
+        <x:v>3734</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
@@ -1269,7 +1269,7 @@
         <x:v>5.5</x:v>
       </x:c>
       <x:c r="G34" s="0">
-        <x:v>0</x:v>
+        <x:v>1392</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
@@ -1292,7 +1292,7 @@
         <x:v>6.6</x:v>
       </x:c>
       <x:c r="G35" s="0">
-        <x:v>0</x:v>
+        <x:v>891</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7">
@@ -1315,7 +1315,7 @@
         <x:v>6.6</x:v>
       </x:c>
       <x:c r="G36" s="0">
-        <x:v>0</x:v>
+        <x:v>2805</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
@@ -1338,7 +1338,7 @@
         <x:v>6.6</x:v>
       </x:c>
       <x:c r="G37" s="0">
-        <x:v>0</x:v>
+        <x:v>4125</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
